--- a/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Expenditure Shares At Current Prices Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Gross National Income and Gross Domestic Product by Expenditure Shares At Current Prices Q_historical.xlsx
@@ -2654,7 +2654,7 @@
         <v>682287.051293</v>
       </c>
       <c r="EG4" t="n">
-        <v>815563.0130029999</v>
+        <v>815563.0130030001</v>
       </c>
       <c r="EH4" t="n">
         <v>611587.733375</v>
